--- a/va_facility_data_2025-02-20/Lieutenant General Richard J. Seitz Community-Based Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Lieutenant%20General%20Richard%20J.%20Seitz%20Community-Based%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lieutenant General Richard J. Seitz Community-Based Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Lieutenant%20General%20Richard%20J.%20Seitz%20Community-Based%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbdee9d125607442797b0116af18f6392"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re8aaef7f88e74b22a2805158582c9258"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfb809ba7c7754722a7286c5a734d2a5b"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R75a2a94655404005ae059129daa0376e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf6dc9d4372eb4a91bec5ae12b665c0e0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5c81258e32dd4d199703a211994d7c39"/>
   </x:sheets>
 </x:workbook>
 </file>
